--- a/biology/Médecine/Jean_Robic_(médecin)/Jean_Robic_(médecin).xlsx
+++ b/biology/Médecine/Jean_Robic_(médecin)/Jean_Robic_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean_Robic_(m%C3%A9decin)</t>
+          <t>Jean_Robic_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Robic, né le 8 janvier 1893[2] à Pontivy et mort le 28 avril 1968[2] également à Pontivy[3], est un médecin militaire français. Il est particulièrement connu pour avoir mis au point, avec le docteur Georges Girard, le vaccin antipesteux EV[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Robic, né le 8 janvier 1893 à Pontivy et mort le 28 avril 1968 également à Pontivy, est un médecin militaire français. Il est particulièrement connu pour avoir mis au point, avec le docteur Georges Girard, le vaccin antipesteux EV,.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean_Robic_(m%C3%A9decin)</t>
+          <t>Jean_Robic_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa première affectation outre-mer est au Maroc, puis il effectue un stage à l'Institut Pasteur de Paris. Arrivé en 1926 à Madagascar, il intègre en 1927, l'Institut Pasteur de Tananarive. Il en est le directeur adjoint, avant d'en devenir le directeur de 1940 à 1953[2]. Avec Georges Girard, il met au point le vaccin antipesteux EV[2],[3],[4]. Le 30 décembre 1953, Jean Robic quitte Madagascar[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa première affectation outre-mer est au Maroc, puis il effectue un stage à l'Institut Pasteur de Paris. Arrivé en 1926 à Madagascar, il intègre en 1927, l'Institut Pasteur de Tananarive. Il en est le directeur adjoint, avant d'en devenir le directeur de 1940 à 1953. Avec Georges Girard, il met au point le vaccin antipesteux EV. Le 30 décembre 1953, Jean Robic quitte Madagascar.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jean_Robic_(m%C3%A9decin)</t>
+          <t>Jean_Robic_(médecin)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,11 +556,13 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il y a une rue Jean-Robic à Pontivy.
-La promotion 1990 de l'école du service de santé des armées se nommait « Promotion médecin Robic »[5].
-Le centre hospitalier de Soavinandriana à Antananarivo s'appelait Hôpital Girard-et-Robic de 1957 à 1977 ; en 2020, il est encore désigné ainsi par la population locale[6].</t>
+La promotion 1990 de l'école du service de santé des armées se nommait « Promotion médecin Robic ».
+Le centre hospitalier de Soavinandriana à Antananarivo s'appelait Hôpital Girard-et-Robic de 1957 à 1977 ; en 2020, il est encore désigné ainsi par la population locale.</t>
         </is>
       </c>
     </row>
